--- a/11-CollaborationList/CERN.xlsx
+++ b/11-CollaborationList/CERN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062DC30-38B2-E543-8296-B8593C457E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08CD01-9107-394F-90A8-4EC6024BB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Title</t>
   </si>
@@ -68,45 +68,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>M.</t>
-  </si>
-  <si>
-    <t>CERN</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Javier</t>
-  </si>
-  <si>
-    <t>Prado Pico</t>
-  </si>
-  <si>
-    <t>J.</t>
-  </si>
-  <si>
-    <t>javier.prado.pico@CERN.CH</t>
-  </si>
-  <si>
-    <t>J. Prado Pico</t>
-  </si>
-  <si>
-    <t>Marlene</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>marlene.turner@CERN.CH</t>
-  </si>
-  <si>
-    <t>M. Turner</t>
-  </si>
-  <si>
-    <t>CERN, CH-1211 Geneva 23, Switzerland</t>
   </si>
 </sst>
 </file>
@@ -651,8 +612,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
-  <autoFilter ref="A1:P3" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:P2" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{AAD0F862-4FB9-0546-8730-888BBB56AC0D}" name="Title"/>
     <tableColumn id="2" xr3:uid="{6B16EDCC-4562-234E-8552-5AE1F2CEE7CD}" name="Name"/>
@@ -992,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC54F49C-56A7-0942-A59F-15EA1B0E0047}">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,58 +1029,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">

--- a/11-CollaborationList/CERN.xlsx
+++ b/11-CollaborationList/CERN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/Library/CloudStorage/Box-Box/CubMac-Box/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050112399888/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C08CD01-9107-394F-90A8-4EC6024BB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8C08CD01-9107-394F-90A8-4EC6024BB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{510E1E6A-0E30-2642-A5DE-DE2019104CC8}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Title</t>
   </si>
@@ -68,13 +68,37 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Dr</t>
+  </si>
+  <si>
+    <t>Alessandra</t>
+  </si>
+  <si>
+    <t>Lombardi</t>
+  </si>
+  <si>
+    <t>A.</t>
+  </si>
+  <si>
+    <t>Alessandra.Lombardi@cern.ch</t>
+  </si>
+  <si>
+    <t>A. Lombardi</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>CERN, CH-1211 Genève 23, Switzerland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -205,6 +229,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +539,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -550,11 +582,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -588,6 +622,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -612,14 +647,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P2" totalsRowShown="0">
   <autoFilter ref="A1:P2" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{AAD0F862-4FB9-0546-8730-888BBB56AC0D}" name="Title"/>
     <tableColumn id="2" xr3:uid="{6B16EDCC-4562-234E-8552-5AE1F2CEE7CD}" name="Name"/>
     <tableColumn id="3" xr3:uid="{D1456439-4E4D-D841-AF42-1C8662679B85}" name="Surname"/>
     <tableColumn id="4" xr3:uid="{DEF3969B-24F5-A44D-8694-A33514443FE9}" name="Initials"/>
-    <tableColumn id="5" xr3:uid="{21CA868C-B7D8-A54A-A2FB-B72B04493EEB}" name="email address"/>
+    <tableColumn id="5" xr3:uid="{21CA868C-B7D8-A54A-A2FB-B72B04493EEB}" name="email address" dataCellStyle="Hyperlink"/>
     <tableColumn id="6" xr3:uid="{80B557C2-3F13-1E4A-A063-FEF5A69BECB1}" name="Name on Publications "/>
     <tableColumn id="7" xr3:uid="{DD2A98E3-2A03-1F48-9129-108C2651528E}" name="Organisation"/>
     <tableColumn id="8" xr3:uid="{3BA21771-C39F-9F4D-A810-B73CB8D4E3B1}" name="Address"/>
@@ -953,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC54F49C-56A7-0942-A59F-15EA1B0E0047}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,10 +1064,39 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{ED8ADBFA-D7D7-8D4D-9EA7-70539CBF9FBD}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/11-CollaborationList/CERN.xlsx
+++ b/11-CollaborationList/CERN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/2050112399888/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{8C08CD01-9107-394F-90A8-4EC6024BB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{510E1E6A-0E30-2642-A5DE-DE2019104CC8}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{8C08CD01-9107-394F-90A8-4EC6024BB625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6552E9C4-04B9-1D4F-9722-7F62A6ADC6F9}"/>
   <bookViews>
     <workbookView xWindow="10360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
   </bookViews>
@@ -79,19 +79,19 @@
     <t>Lombardi</t>
   </si>
   <si>
-    <t>A.</t>
-  </si>
-  <si>
     <t>Alessandra.Lombardi@cern.ch</t>
   </si>
   <si>
-    <t>A. Lombardi</t>
-  </si>
-  <si>
     <t>CERN</t>
   </si>
   <si>
     <t>CERN, CH-1211 Genève 23, Switzerland</t>
+  </si>
+  <si>
+    <t>A.M Lombardi</t>
+  </si>
+  <si>
+    <t>A.M.</t>
   </si>
 </sst>
 </file>
@@ -991,7 +991,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,19 +1075,19 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
